--- a/消防/05_日报/515工作汇报.xlsx
+++ b/消防/05_日报/515工作汇报.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\每日汇报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\githup\消防\05_日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017年05月15日测试情况汇报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进度说明：
 1.老三屏1.0版本，已经完成第一轮测试。
 2.ci完成deviceCenter的构建。
@@ -75,6 +71,10 @@
 2.CI usercenter下载不下来。---需要晓飞提供下。
 3.CI iot-monitor-app不是maven工程。需要提供build.xml文件，通过ant打包。
 4.支队转测时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05月15日测试情况汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,6 +155,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -177,14 +203,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +496,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:F11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,14 +508,14 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -548,22 +574,22 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
